--- a/testare.xlsx
+++ b/testare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prede\Desktop\facultate\anul2_sem1\OOP\tema_vacanta_de_iarna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAFC989A-A393-43A7-8C95-84BCC526C73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D06293-8BEC-49C8-BE86-EA28343877D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>49</v>
